--- a/1.xlsx
+++ b/1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProject\monitor_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12907E5-CA97-46AF-8EF5-D8E885F54DFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="12045" yWindow="8655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -12,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1 (2)'!$A$1:$L$13</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -148,14 +165,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,151 +220,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -374,198 +248,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -653,276 +341,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -932,20 +363,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,72 +380,58 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1042,13 +447,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1080,13 +491,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1118,13 +535,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1156,13 +579,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1194,13 +623,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1232,13 +667,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1270,13 +711,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1308,13 +755,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1346,13 +799,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1384,13 +843,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1666,349 +1131,352 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.775" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="7" style="2" customWidth="1"/>
-    <col min="3" max="12" width="14.6666666666667" style="2" customWidth="1"/>
-    <col min="13" max="13" width="19.1083333333333" style="2" customWidth="1"/>
+    <col min="3" max="12" width="14.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19.125" style="2" customWidth="1"/>
     <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="45" customHeight="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="37.5" customHeight="1" spans="1:12">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="61.5" customHeight="1" spans="1:12">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="26.1" customHeight="1" spans="1:12">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10">
+      <c r="B4" s="20"/>
+      <c r="C4" s="5">
         <f ca="1">TODAY()-C7</f>
         <v>146</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="5">
         <f ca="1">TODAY()-D7</f>
         <v>862</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="5">
         <f ca="1">TODAY()-E7</f>
         <v>436</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="5">
         <f ca="1">TODAY()-F7</f>
         <v>2425</v>
       </c>
-      <c r="G4" s="10">
-        <f ca="1" t="shared" ref="F4:L4" si="0">TODAY()-G7</f>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:L4" ca="1" si="0">TODAY()-G7</f>
         <v>986</v>
       </c>
-      <c r="H4" s="10">
-        <f ca="1" t="shared" si="0"/>
+      <c r="H4" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>601</v>
       </c>
-      <c r="I4" s="10">
-        <f ca="1" t="shared" si="0"/>
+      <c r="I4" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>1449</v>
       </c>
-      <c r="J4" s="10">
-        <f ca="1" t="shared" si="0"/>
+      <c r="J4" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>489</v>
       </c>
-      <c r="K4" s="10">
-        <f ca="1" t="shared" si="0"/>
+      <c r="K4" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>156</v>
       </c>
-      <c r="L4" s="10">
-        <f ca="1" t="shared" si="0"/>
+      <c r="L4" s="5">
+        <f t="shared" ca="1" si="0"/>
         <v>2722</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="26.1" customHeight="1" spans="1:12">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11">
+      <c r="B5" s="20"/>
+      <c r="C5" s="6">
         <v>200</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="6">
         <v>900</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="6">
         <v>500</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="6">
         <v>2500</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="6">
         <v>1000</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="6">
         <v>800</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="6">
         <v>1500</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="6">
         <v>500</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="11">
         <v>500</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="11">
         <v>2800</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="26.1" customHeight="1" spans="1:12">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11">
+      <c r="B6" s="22"/>
+      <c r="C6" s="6">
         <f ca="1">C5-C4</f>
         <v>54</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="6">
         <f ca="1">D5-D4</f>
         <v>38</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="6">
         <f ca="1">E5-E4</f>
         <v>64</v>
       </c>
-      <c r="F6" s="11">
-        <f ca="1" t="shared" ref="F6:L6" si="1">F5-F4</f>
+      <c r="F6" s="6">
+        <f t="shared" ref="F6:L6" ca="1" si="1">F5-F4</f>
         <v>75</v>
       </c>
-      <c r="G6" s="11">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G6" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>14</v>
       </c>
-      <c r="H6" s="11">
-        <f ca="1" t="shared" si="1"/>
+      <c r="H6" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>199</v>
       </c>
-      <c r="I6" s="11">
-        <f ca="1" t="shared" si="1"/>
+      <c r="I6" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>51</v>
       </c>
-      <c r="J6" s="11">
-        <f ca="1" t="shared" si="1"/>
+      <c r="J6" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>11</v>
       </c>
-      <c r="K6" s="11">
-        <f ca="1" t="shared" si="1"/>
+      <c r="K6" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>344</v>
       </c>
-      <c r="L6" s="11">
-        <f ca="1" t="shared" si="1"/>
+      <c r="L6" s="6">
+        <f t="shared" ca="1" si="1"/>
         <v>78</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="32" customHeight="1" spans="1:13">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="14">
+      <c r="B7" s="20"/>
+      <c r="C7" s="7">
         <v>44282</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="7">
         <v>43566</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="7">
         <v>43992</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="7">
         <v>42003</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="7">
         <v>43442</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="7">
         <v>43827</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="7">
         <v>42979</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="7">
         <v>43939</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="7">
         <v>44272</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="7">
         <v>41706</v>
       </c>
-      <c r="M7" s="21"/>
+      <c r="M7" s="12"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="24.75" customHeight="1" spans="1:12">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1"/>
-    <row r="10" s="1" customFormat="1" ht="30" customHeight="1" spans="1:4">
-      <c r="A10" s="15" t="s">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="8"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:3">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="18"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" ht="19" customHeight="1" spans="1:3">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="9"/>
     </row>
-    <row r="13" ht="24" customHeight="1" spans="1:3">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="19">
+      <c r="B13" s="20"/>
+      <c r="C13" s="10">
         <f>C12-C11</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="79" orientation="landscape"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>